--- a/biology/Botanique/Cyathula_fernando-poensis/Cyathula_fernando-poensis.xlsx
+++ b/biology/Botanique/Cyathula_fernando-poensis/Cyathula_fernando-poensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyathula fernando-poensis Suess. &amp; Friedrich est une espèce de plantes de la famille des Amaranthaceae et du genre Cyathula, présente sur la ligne montagneuse du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique fernando-poensis fait référence à l'île de Fernando Poo, aujourd'hui connue sous le nom de Bioko en Guinée équatoriale, où le spécimen-type a été récolté en décembre 1951[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique fernando-poensis fait référence à l'île de Fernando Poo, aujourd'hui connue sous le nom de Bioko en Guinée équatoriale, où le spécimen-type a été récolté en décembre 1951.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe pouvant atteindre 30 cm de hauteur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe pouvant atteindre 30 cm de hauteur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, l'espèce a d'abord été observée en 1951, à El Pico sur l'île de Bioko (Guinée équatoriale), puis au Cameroun, sur deux sites de la Région du Sud-Ouest, dans les monts Bakossi à Kodmin et au mont Koupé au-dessus de Nyasoso[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, l'espèce a d'abord été observée en 1951, à El Pico sur l'île de Bioko (Guinée équatoriale), puis au Cameroun, sur deux sites de la Région du Sud-Ouest, dans les monts Bakossi à Kodmin et au mont Koupé au-dessus de Nyasoso.
 </t>
         </is>
       </c>
